--- a/保险.xlsx
+++ b/保险.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,16 +9,64 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>房屋主体结构险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寿险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重疾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安保险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://baoxian.pingan.com/member/order/policy-list.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百年康惠30年 2900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -41,22 +89,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +157,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +192,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +400,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/保险.xlsx
+++ b/保险.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A990674D-EC32-421C-B115-FA1C8226C8B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>房屋主体结构险</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,13 +44,21 @@
   </si>
   <si>
     <t>百年康惠30年 2900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达尔文超越者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞和</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,7 +126,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -190,6 +201,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -225,6 +253,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,61 +445,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6566C23B-FCD1-4B2F-B4DF-2572EB73BA50}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.375" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16131F1-754E-4D5D-B309-031AECFB438D}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/保险.xlsx
+++ b/保险.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A990674D-EC32-421C-B115-FA1C8226C8B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BB620A-793F-4F1D-B477-F7D910ECDACD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="寿险" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>房屋主体结构险</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,7 +51,156 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>瑞和</t>
+    <t>大麦定寿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免责条款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大白智能定寿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被保人在 41 岁前身故/全残，可以额外赔付 50% 保额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格适合女性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格适合男性，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夫妻共买，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞泰瑞和升级版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三峡人寿爱相随</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商仁和擎天柱 3 号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1） 投保人对被保险人的故意杀害、故意伤害；
+（2） 被保险人故意犯罪或者抗拒依法采取的刑事强制措施；
+（3） 被保险人自本合同生效（或最后一次复效）之日起2年内自杀，但被保险人自杀时为无民事行为能力人的除外。
+发生上述第（1）项情形导致被保险人身故或全残的，本合同效力终止，我们向其他权利人退还合同终止时的保单现金价值（释义7）。
+发生上述其他情形导致被保险人身故或全残的，本合同效力终止，我们向您退还合同终止时的保单现金价值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zhongmin.cn/life/detail/ip10859_is1.html#navPostion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://qingtianzhusell.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交费年限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zhongmin.cn/life/detail/ip11348_is1.html?area=SEARCPJQCHGDMPC&amp;bd_vid=8035660390825350110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)投保人对被保险人的故意杀害、故意伤害；
+2)被保险人故意犯罪或抗拒依法采取的刑事强制措施；
+3)被保险人自本合同成立或者合同效力恢复之日起二年内自杀，但自杀时为无民事行为能力人的除外；
+发生上述第1项情形导致被保险人身故的，本合同终止，本公司向被保险人继承人退还本合同的现金价值。
+因上述第2-3项情形导致被保险人身故的，本合同终止，本公司向您退还本合同的现金价值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女2250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男2505/1935</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女1530/1170
+男2850/2190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女1545/1185
+男2925/2250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1）投保人对被保险人的故意杀害、故意伤害；
+（2）被保险人故意自伤、故意犯罪或者抗拒依法采取的刑事强制措施；被保险人自本合同成立或者合同效力恢复之日起2年内自杀，但被保险人自杀时为无民事行为能力人的除外；
+（3）被保险人主动吸食或注射毒品（见9.6），酒后驾驶（见9.7），无合法有效驾驶证驾驶（见9.8），或驾驶无合法有效行驶证（见9.9）的机动车（见9.10）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女1995/1530
+男3720/2850</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zhongmin.cn/life/detail/ip11570_is1.html?area=SEARCPJQCZNDSPC&amp;bd_vid=7823422834748943211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zhongmin.cn/life/detail/ip12045_is1.html?area=SEARCPJQCDMTMJ&amp;bd_vid=7043932830802805599</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保30年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4260/3280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华贵大麦甜蜜家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,9 +253,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -449,7 +604,7 @@
   <dimension ref="A2:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -478,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -486,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -536,26 +691,194 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16131F1-754E-4D5D-B309-031AECFB438D}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="52.54296875" customWidth="1"/>
+    <col min="7" max="7" width="52.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.54296875" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="154" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="112" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="112" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="84" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>150</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="84" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" location="navPostion" xr:uid="{BF89F2A3-349A-486B-A50E-DDEFAB3356F5}"/>
+    <hyperlink ref="H6" r:id="rId2" xr:uid="{E98121D5-0378-4565-B670-1B4CDC311C06}"/>
+    <hyperlink ref="H3" r:id="rId3" xr:uid="{048AD67B-4EC7-4CC9-8B11-B19FE40B1F2D}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{3DF19209-2B8C-44FD-BFA4-94E659B2BFAD}"/>
+    <hyperlink ref="H8" r:id="rId5" xr:uid="{E3D1E7FA-12A3-4C7E-A21A-3D43DF46BEB0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>